--- a/IPM-Bakeoff2.xlsx
+++ b/IPM-Bakeoff2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\futeb\IST\2º Ano\2º Semestre\IPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73DC86A4-09F9-442F-A386-BF95629ED7F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE284048-9AAF-45CF-8D30-6FB056488BB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,7 +418,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:Q10"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,6 +664,9 @@
       <c r="N11">
         <v>0.42299999999999999</v>
       </c>
+      <c r="Q11">
+        <v>0.54700000000000004</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -683,6 +686,9 @@
       </c>
       <c r="N12">
         <v>0.69299999999999995</v>
+      </c>
+      <c r="Q12">
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -895,7 +901,7 @@
       </c>
       <c r="Q27">
         <f>AVERAGE(Q4:Q26)</f>
-        <v>0.53300000000000003</v>
+        <v>0.53255555555555545</v>
       </c>
       <c r="R27" t="s">
         <v>2</v>

--- a/IPM-Bakeoff2.xlsx
+++ b/IPM-Bakeoff2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\futeb\IST\2º Ano\2º Semestre\IPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE284048-9AAF-45CF-8D30-6FB056488BB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5670092C-0812-465E-A77C-EAD6602CC012}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Tempo bruto</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>4ª iteração</t>
+  </si>
+  <si>
+    <t>DESVIO PADRÃO</t>
   </si>
 </sst>
 </file>
@@ -415,29 +418,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
@@ -465,9 +470,6 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
@@ -710,6 +712,9 @@
       <c r="N13">
         <v>0.42099999999999999</v>
       </c>
+      <c r="Q13">
+        <v>0.51200000000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -730,6 +735,9 @@
       <c r="N14">
         <v>0.47699999999999998</v>
       </c>
+      <c r="Q14">
+        <v>0.52200000000000002</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -750,6 +758,9 @@
       <c r="N15">
         <v>0.53400000000000003</v>
       </c>
+      <c r="Q15">
+        <v>0.41199999999999998</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -770,6 +781,9 @@
       <c r="N16">
         <v>0.47299999999999998</v>
       </c>
+      <c r="Q16">
+        <v>0.64500000000000002</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -790,6 +804,9 @@
       <c r="N17">
         <v>0.45800000000000002</v>
       </c>
+      <c r="Q17">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -801,6 +818,9 @@
       <c r="E18">
         <v>0.38700000000000001</v>
       </c>
+      <c r="Q18">
+        <v>0.55200000000000005</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -812,6 +832,9 @@
       <c r="E19">
         <v>0.42899999999999999</v>
       </c>
+      <c r="Q19">
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -822,6 +845,9 @@
       </c>
       <c r="E20">
         <v>1.248</v>
+      </c>
+      <c r="Q20">
+        <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -901,10 +927,54 @@
       </c>
       <c r="Q27">
         <f>AVERAGE(Q4:Q26)</f>
-        <v>0.53255555555555545</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="R27" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>_xlfn.STDEV.S(B4:B24)</f>
+        <v>0.41602493629474602</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <f>_xlfn.STDEV.S(E4:E24)</f>
+        <v>0.21555258824856086</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <f>_xlfn.STDEV.S(G4:G24)</f>
+        <v>0.28575799528295265</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <f>_xlfn.STDEV.S(J4:J24)</f>
+        <v>0.23278802318045427</v>
+      </c>
+      <c r="K28" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <f>_xlfn.STDEV.S(N4:N24)</f>
+        <v>0.10490154986860394</v>
+      </c>
+      <c r="O28" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28">
+        <f>_xlfn.STDEV.S(Q4:Q24)</f>
+        <v>9.9049861181124313E-2</v>
+      </c>
+      <c r="R28" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
